--- a/IWWRMP/Data/EXD/Pathahewaheta_name lists.xlsx
+++ b/IWWRMP/Data/EXD/Pathahewaheta_name lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/k_seelanatha_cgiar_org/Documents/Documents/since 692024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.wickramasinghe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC8DF4C-CC25-44CE-A761-C68AC7F4B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7F132-8DFD-4E1E-86DD-0B305C46DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSDC" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1100">
   <si>
     <t>No</t>
   </si>
@@ -3370,7 +3370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3424,6 +3424,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3439,7 +3445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3486,24 +3492,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3586,27 +3579,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3944,22 +3922,22 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -4005,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -4028,7 +4006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -4051,7 +4029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -4074,7 +4052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -4097,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -4120,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -4143,7 +4121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -4166,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -4189,7 +4167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -4212,7 +4190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -4235,7 +4213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -4258,7 +4236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -4281,7 +4259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -4304,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -4327,7 +4305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4343,14 +4321,14 @@
       <c r="E17" s="28" t="s">
         <v>1088</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="28">
         <v>768546090</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -4366,14 +4344,14 @@
       <c r="E18" s="28" t="s">
         <v>1091</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="28">
         <v>761064780</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -4389,14 +4367,14 @@
       <c r="E19" s="28" t="s">
         <v>1094</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="28">
         <v>713533475</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -4412,14 +4390,14 @@
       <c r="E20" s="28" t="s">
         <v>1094</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="28">
         <v>712719886</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -4435,14 +4413,14 @@
       <c r="E21" s="28" t="s">
         <v>1094</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="28">
         <v>716135752</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -4458,15 +4436,12 @@
       <c r="E22" s="28" t="s">
         <v>1083</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="28">
         <v>7781157913</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4480,50 +4455,50 @@
   </sheetPr>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="34.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="36"/>
-    <col min="5" max="5" width="36.5703125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>923</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>925</v>
       </c>
       <c r="B2" s="27">
@@ -4541,13 +4516,17 @@
       <c r="F2" s="28" t="s">
         <v>928</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="28">
         <v>779199672</v>
       </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="H2" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
@@ -4563,13 +4542,17 @@
       <c r="F3" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="28">
         <v>713557618</v>
       </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="H3" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
@@ -4585,13 +4568,17 @@
       <c r="F4" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="28">
         <v>714425894</v>
       </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="H4" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
@@ -4607,11 +4594,17 @@
       <c r="F5" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="G5" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
@@ -4627,11 +4620,17 @@
       <c r="F6" s="28" t="s">
         <v>934</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="G6" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
@@ -4647,11 +4646,17 @@
       <c r="F7" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="G7" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B8" s="27">
         <v>7</v>
       </c>
@@ -4664,12 +4669,20 @@
       <c r="E8" s="28" t="s">
         <v>937</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="F8" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B9" s="27">
         <v>8</v>
       </c>
@@ -4682,14 +4695,20 @@
       <c r="E9" s="28" t="s">
         <v>939</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="37">
+      <c r="F9" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G9" s="28">
         <v>762666671</v>
       </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="H9" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B10" s="27">
         <v>9</v>
       </c>
@@ -4702,14 +4721,20 @@
       <c r="E10" s="28" t="s">
         <v>941</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="37">
+      <c r="F10" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G10" s="28">
         <v>775628705</v>
       </c>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="H10" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B11" s="27">
         <v>10</v>
       </c>
@@ -4722,14 +4747,20 @@
       <c r="E11" s="28" t="s">
         <v>943</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="37">
+      <c r="F11" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G11" s="28">
         <v>779378759</v>
       </c>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="H11" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B12" s="27">
         <v>11</v>
       </c>
@@ -4742,14 +4773,20 @@
       <c r="E12" s="28" t="s">
         <v>945</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="37">
+      <c r="F12" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G12" s="28">
         <v>714787216</v>
       </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="H12" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B13" s="27">
         <v>12</v>
       </c>
@@ -4762,12 +4799,20 @@
       <c r="E13" s="28" t="s">
         <v>946</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="F13" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B14" s="27">
         <v>13</v>
       </c>
@@ -4780,12 +4825,20 @@
       <c r="E14" s="28" t="s">
         <v>948</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="F14" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B15" s="27">
         <v>14</v>
       </c>
@@ -4798,14 +4851,20 @@
       <c r="E15" s="28" t="s">
         <v>950</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="37">
+      <c r="F15" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15" s="28">
         <v>713528808</v>
       </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="H15" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B16" s="27">
         <v>15</v>
       </c>
@@ -4818,14 +4877,20 @@
       <c r="E16" s="28" t="s">
         <v>952</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37">
+      <c r="F16" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G16" s="28">
         <v>768748874</v>
       </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="H16" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B17" s="27">
         <v>16</v>
       </c>
@@ -4838,14 +4903,20 @@
       <c r="E17" s="28" t="s">
         <v>954</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="37">
+      <c r="F17" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G17" s="28">
         <v>718446376</v>
       </c>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="H17" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B18" s="27">
         <v>17</v>
       </c>
@@ -4858,12 +4929,20 @@
       <c r="E18" s="28" t="s">
         <v>956</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="F18" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B19" s="27">
         <v>18</v>
       </c>
@@ -4876,14 +4955,20 @@
       <c r="E19" s="28" t="s">
         <v>958</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="37">
+      <c r="F19" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G19" s="28">
         <v>77301946</v>
       </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="H19" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B20" s="27">
         <v>19</v>
       </c>
@@ -4896,12 +4981,20 @@
       <c r="E20" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="F20" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B21" s="27">
         <v>20</v>
       </c>
@@ -4914,12 +5007,20 @@
       <c r="E21" s="28" t="s">
         <v>962</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="F21" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>925</v>
+      </c>
       <c r="B22" s="27">
         <v>21</v>
       </c>
@@ -4932,14 +5033,18 @@
       <c r="E22" s="28" t="s">
         <v>964</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="37">
+      <c r="F22" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G22" s="28">
         <v>789539624</v>
       </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="H22" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>965</v>
       </c>
       <c r="B23" s="27">
@@ -4957,15 +5062,17 @@
       <c r="F23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="28">
         <v>772680361</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B24" s="27">
         <v>2</v>
       </c>
@@ -4981,15 +5088,17 @@
       <c r="F24" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="28">
         <v>714425894</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B25" s="27">
         <v>3</v>
       </c>
@@ -5005,15 +5114,17 @@
       <c r="F25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="28">
         <v>741115416</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B26" s="27">
         <v>4</v>
       </c>
@@ -5029,59 +5140,69 @@
       <c r="F26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="28">
         <v>717652805</v>
       </c>
       <c r="H26" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B27" s="27">
         <v>5</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E27" s="28" t="s">
         <v>927</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="28">
         <v>773044046</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B28" s="27">
         <v>6</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E28" s="28" t="s">
         <v>927</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="28">
         <v>785144756</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B29" s="27">
         <v>7</v>
       </c>
@@ -5097,15 +5218,17 @@
       <c r="F29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="28">
         <v>714156157</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B30" s="27">
         <v>8</v>
       </c>
@@ -5121,37 +5244,43 @@
       <c r="F30" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="28">
         <v>776949897</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B31" s="27">
         <v>9</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E31" s="28" t="s">
         <v>973</v>
       </c>
       <c r="F31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="28">
         <v>776471324</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B32" s="27">
         <v>10</v>
       </c>
@@ -5167,37 +5296,43 @@
       <c r="F32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="28">
         <v>714284341</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B33" s="27">
         <v>11</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E33" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="28">
         <v>725338088</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B34" s="27">
         <v>12</v>
       </c>
@@ -5213,15 +5348,17 @@
       <c r="F34" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="28">
         <v>725338088</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B35" s="27">
         <v>13</v>
       </c>
@@ -5237,37 +5374,41 @@
       <c r="F35" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="28">
         <v>763157904</v>
       </c>
       <c r="H35" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>965</v>
+      </c>
       <c r="B36" s="27">
         <v>14</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>977</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E36" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="28">
         <v>77666021</v>
       </c>
       <c r="H36" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>978</v>
       </c>
       <c r="B37" s="27">
@@ -5285,13 +5426,17 @@
       <c r="F37" s="28" t="s">
         <v>928</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="28">
         <v>779199672</v>
       </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="H37" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B38" s="27">
         <v>2</v>
       </c>
@@ -5307,13 +5452,17 @@
       <c r="F38" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="28">
         <v>713557618</v>
       </c>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="H38" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B39" s="27">
         <v>3</v>
       </c>
@@ -5329,33 +5478,43 @@
       <c r="F39" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="28">
         <v>714425894</v>
       </c>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="H39" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B40" s="27">
         <v>4</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>979</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E40" s="28" t="s">
         <v>927</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="28">
         <v>741243202</v>
       </c>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="H40" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B41" s="27">
         <v>5</v>
       </c>
@@ -5371,11 +5530,17 @@
       <c r="F41" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="G41" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B42" s="27">
         <v>6</v>
       </c>
@@ -5385,15 +5550,21 @@
       <c r="D42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="28" t="s">
+        <v>636</v>
+      </c>
       <c r="F42" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B43" s="27">
         <v>7</v>
       </c>
@@ -5409,11 +5580,17 @@
       <c r="F43" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="G43" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B44" s="27">
         <v>8</v>
       </c>
@@ -5429,13 +5606,17 @@
       <c r="F44" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="28">
         <v>8120504787</v>
       </c>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="H44" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B45" s="27">
         <v>9</v>
       </c>
@@ -5448,14 +5629,20 @@
       <c r="E45" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="37">
+      <c r="F45" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G45" s="28">
         <v>711113819</v>
       </c>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="H45" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B46" s="27">
         <v>10</v>
       </c>
@@ -5468,14 +5655,20 @@
       <c r="E46" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="37">
+      <c r="F46" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G46" s="28">
         <v>756367433</v>
       </c>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="H46" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B47" s="27">
         <v>11</v>
       </c>
@@ -5488,14 +5681,20 @@
       <c r="E47" s="28" t="s">
         <v>988</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="37">
+      <c r="F47" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G47" s="28">
         <v>765477486</v>
       </c>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="H47" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B48" s="27">
         <v>12</v>
       </c>
@@ -5508,14 +5707,20 @@
       <c r="E48" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="37">
+      <c r="F48" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G48" s="28">
         <v>718061138</v>
       </c>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="H48" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B49" s="27">
         <v>13</v>
       </c>
@@ -5528,14 +5733,20 @@
       <c r="E49" s="28" t="s">
         <v>992</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="37">
+      <c r="F49" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G49" s="28">
         <v>779743432</v>
       </c>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="H49" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B50" s="27">
         <v>14</v>
       </c>
@@ -5551,13 +5762,17 @@
       <c r="F50" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="28">
         <v>779274419</v>
       </c>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="H50" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B51" s="27">
         <v>15</v>
       </c>
@@ -5570,12 +5785,20 @@
       <c r="E51" s="28" t="s">
         <v>995</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="F51" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B52" s="27">
         <v>16</v>
       </c>
@@ -5588,14 +5811,20 @@
       <c r="E52" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="37">
+      <c r="F52" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G52" s="28">
         <v>775845621</v>
       </c>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="H52" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B53" s="27">
         <v>17</v>
       </c>
@@ -5608,50 +5837,72 @@
       <c r="E53" s="28" t="s">
         <v>998</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="37">
+      <c r="F53" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G53" s="28">
         <v>740061031</v>
       </c>
-      <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="H53" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B54" s="27">
         <v>18</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>999</v>
       </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E54" s="28" t="s">
         <v>1000</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="37">
+      <c r="F54" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G54" s="28">
         <v>718983518</v>
       </c>
-      <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="H54" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B55" s="27">
         <v>19</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>1001</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E55" s="28" t="s">
         <v>1002</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="37">
+      <c r="F55" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G55" s="28">
         <v>726920445</v>
       </c>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="H55" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B56" s="27">
         <v>20</v>
       </c>
@@ -5664,14 +5915,20 @@
       <c r="E56" s="28" t="s">
         <v>1004</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="37">
+      <c r="F56" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G56" s="28">
         <v>719532300</v>
       </c>
-      <c r="H56" s="28"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="H56" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B57" s="27">
         <v>21</v>
       </c>
@@ -5687,13 +5944,17 @@
       <c r="F57" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="28">
         <v>764898178</v>
       </c>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="H57" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
+        <v>978</v>
+      </c>
       <c r="B58" s="27">
         <v>22</v>
       </c>
@@ -5709,13 +5970,15 @@
       <c r="F58" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="28">
         <v>702748450</v>
       </c>
-      <c r="H58" s="28"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="H58" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
         <v>1009</v>
       </c>
       <c r="B59" s="27">
@@ -5733,13 +5996,17 @@
       <c r="F59" s="28" t="s">
         <v>928</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="28">
         <v>779199672</v>
       </c>
-      <c r="H59" s="28"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="H59" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B60" s="27">
         <v>2</v>
       </c>
@@ -5755,13 +6022,17 @@
       <c r="F60" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="28">
         <v>713557618</v>
       </c>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="H60" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B61" s="27">
         <v>3</v>
       </c>
@@ -5777,13 +6048,17 @@
       <c r="F61" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G61" s="37">
+      <c r="G61" s="28">
         <v>714425894</v>
       </c>
-      <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="H61" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B62" s="27">
         <v>4</v>
       </c>
@@ -5799,13 +6074,17 @@
       <c r="F62" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="28">
         <v>713787010</v>
       </c>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="H62" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B63" s="27">
         <v>5</v>
       </c>
@@ -5821,13 +6100,17 @@
       <c r="F63" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="28">
         <v>779272962</v>
       </c>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="H63" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B64" s="27">
         <v>6</v>
       </c>
@@ -5837,17 +6120,23 @@
       <c r="D64" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="28"/>
+      <c r="E64" s="28" t="s">
+        <v>636</v>
+      </c>
       <c r="F64" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="28">
         <v>7173006673</v>
       </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
+      <c r="H64" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B65" s="27">
         <v>7</v>
       </c>
@@ -5863,11 +6152,17 @@
       <c r="F65" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="28"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="G65" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B66" s="27">
         <v>8</v>
       </c>
@@ -5880,14 +6175,20 @@
       <c r="E66" s="28" t="s">
         <v>1015</v>
       </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="37">
+      <c r="F66" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G66" s="28">
         <v>786967786</v>
       </c>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="H66" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B67" s="27">
         <v>9</v>
       </c>
@@ -5900,32 +6201,46 @@
       <c r="E67" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="37">
+      <c r="F67" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G67" s="28">
         <v>703967171</v>
       </c>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="H67" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B68" s="27">
         <v>10</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="D68" s="27"/>
+      <c r="D68" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E68" s="28" t="s">
         <v>1019</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="37">
+      <c r="F68" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G68" s="28">
         <v>713786752</v>
       </c>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="H68" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B69" s="27">
         <v>11</v>
       </c>
@@ -5938,14 +6253,20 @@
       <c r="E69" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="37">
+      <c r="F69" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G69" s="28">
         <v>728262515</v>
       </c>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="H69" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B70" s="27">
         <v>12</v>
       </c>
@@ -5958,14 +6279,20 @@
       <c r="E70" s="28" t="s">
         <v>1022</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="37">
+      <c r="F70" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G70" s="28">
         <v>756599125</v>
       </c>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
+      <c r="H70" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B71" s="27">
         <v>13</v>
       </c>
@@ -5978,14 +6305,20 @@
       <c r="E71" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="37">
+      <c r="F71" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G71" s="28">
         <v>702635205</v>
       </c>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
+      <c r="H71" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B72" s="27">
         <v>14</v>
       </c>
@@ -5998,14 +6331,20 @@
       <c r="E72" s="28" t="s">
         <v>1025</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="37">
+      <c r="F72" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G72" s="28">
         <v>772465771</v>
       </c>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
+      <c r="H72" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B73" s="27">
         <v>15</v>
       </c>
@@ -6018,14 +6357,20 @@
       <c r="E73" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="37">
+      <c r="F73" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G73" s="28">
         <v>779959456</v>
       </c>
-      <c r="H73" s="28"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="H73" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B74" s="27">
         <v>16</v>
       </c>
@@ -6038,12 +6383,20 @@
       <c r="E74" s="28" t="s">
         <v>1027</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="F74" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B75" s="27">
         <v>17</v>
       </c>
@@ -6056,44 +6409,70 @@
       <c r="E75" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="F75" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B76" s="27">
         <v>18</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D76" s="27"/>
+      <c r="D76" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E76" s="28" t="s">
         <v>1030</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="28"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="F76" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="33" t="s">
+        <v>1009</v>
+      </c>
       <c r="B77" s="27">
         <v>19</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="D77" s="27"/>
+      <c r="D77" s="27" t="s">
+        <v>636</v>
+      </c>
       <c r="E77" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="28"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="F77" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="33" t="s">
         <v>1033</v>
       </c>
       <c r="B78" s="27">
@@ -6111,13 +6490,17 @@
       <c r="F78" s="28" t="s">
         <v>928</v>
       </c>
-      <c r="G78" s="37">
+      <c r="G78" s="28">
         <v>779199672</v>
       </c>
-      <c r="H78" s="28"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="H78" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B79" s="27">
         <v>2</v>
       </c>
@@ -6133,13 +6516,17 @@
       <c r="F79" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="G79" s="37">
+      <c r="G79" s="28">
         <v>713557618</v>
       </c>
-      <c r="H79" s="28"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="H79" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B80" s="27">
         <v>3</v>
       </c>
@@ -6155,13 +6542,17 @@
       <c r="F80" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G80" s="37">
+      <c r="G80" s="28">
         <v>714425894</v>
       </c>
-      <c r="H80" s="28"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="H80" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B81" s="27">
         <v>4</v>
       </c>
@@ -6177,11 +6568,17 @@
       <c r="F81" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="28"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="G81" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B82" s="27">
         <v>5</v>
       </c>
@@ -6197,11 +6594,17 @@
       <c r="F82" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="28"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="G82" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B83" s="27">
         <v>6</v>
       </c>
@@ -6217,13 +6620,17 @@
       <c r="F83" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="37">
+      <c r="G83" s="28">
         <v>759104827</v>
       </c>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
+      <c r="H83" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B84" s="27">
         <v>7</v>
       </c>
@@ -6239,11 +6646,17 @@
       <c r="F84" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="G84" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B85" s="27">
         <v>8</v>
       </c>
@@ -6256,14 +6669,20 @@
       <c r="E85" s="28" t="s">
         <v>1039</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="37">
+      <c r="F85" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G85" s="28">
         <v>761552352</v>
       </c>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="H85" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B86" s="27">
         <v>9</v>
       </c>
@@ -6276,14 +6695,20 @@
       <c r="E86" s="28" t="s">
         <v>1041</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="37">
+      <c r="F86" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G86" s="28">
         <v>712223754</v>
       </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="H86" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B87" s="27">
         <v>10</v>
       </c>
@@ -6296,14 +6721,20 @@
       <c r="E87" s="28" t="s">
         <v>1043</v>
       </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="37">
+      <c r="F87" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G87" s="28">
         <v>723167174</v>
       </c>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="H87" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B88" s="27">
         <v>11</v>
       </c>
@@ -6316,14 +6747,20 @@
       <c r="E88" s="28" t="s">
         <v>1045</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="37">
+      <c r="F88" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G88" s="28">
         <v>716137679</v>
       </c>
-      <c r="H88" s="28"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="H88" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B89" s="27">
         <v>12</v>
       </c>
@@ -6336,14 +6773,20 @@
       <c r="E89" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="37">
+      <c r="F89" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G89" s="28">
         <v>779835672</v>
       </c>
-      <c r="H89" s="28"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="H89" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>1033</v>
+      </c>
       <c r="B90" s="27">
         <v>13</v>
       </c>
@@ -6356,14 +6799,18 @@
       <c r="E90" s="28" t="s">
         <v>1049</v>
       </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="37">
+      <c r="F90" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G90" s="28">
         <v>768227389</v>
       </c>
-      <c r="H90" s="28"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
+      <c r="H90" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="33" t="s">
         <v>1050</v>
       </c>
       <c r="B91" s="27">
@@ -6381,13 +6828,17 @@
       <c r="F91" s="28" t="s">
         <v>928</v>
       </c>
-      <c r="G91" s="37">
+      <c r="G91" s="28">
         <v>779199672</v>
       </c>
-      <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="H91" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B92" s="27">
         <v>2</v>
       </c>
@@ -6403,13 +6854,17 @@
       <c r="F92" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="G92" s="37">
+      <c r="G92" s="28">
         <v>713557618</v>
       </c>
-      <c r="H92" s="28"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="H92" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B93" s="27">
         <v>3</v>
       </c>
@@ -6425,13 +6880,17 @@
       <c r="F93" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="G93" s="37">
+      <c r="G93" s="28">
         <v>714425894</v>
       </c>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="H93" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B94" s="27">
         <v>4</v>
       </c>
@@ -6447,13 +6906,17 @@
       <c r="F94" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="G94" s="37">
+      <c r="G94" s="28">
         <v>716020654</v>
       </c>
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
+      <c r="H94" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B95" s="27">
         <v>5</v>
       </c>
@@ -6469,11 +6932,17 @@
       <c r="F95" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
+      <c r="G95" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H95" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B96" s="27">
         <v>6</v>
       </c>
@@ -6489,11 +6958,17 @@
       <c r="F96" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
+      <c r="G96" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B97" s="27">
         <v>7</v>
       </c>
@@ -6506,14 +6981,20 @@
       <c r="E97" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="F97" s="28"/>
-      <c r="G97" s="37">
+      <c r="F97" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G97" s="28">
         <v>778342213</v>
       </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
+      <c r="H97" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B98" s="27">
         <v>8</v>
       </c>
@@ -6526,14 +7007,20 @@
       <c r="E98" s="28" t="s">
         <v>1054</v>
       </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="37">
+      <c r="F98" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G98" s="28">
         <v>779369876</v>
       </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="H98" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B99" s="27">
         <v>9</v>
       </c>
@@ -6546,14 +7033,20 @@
       <c r="E99" s="28" t="s">
         <v>1056</v>
       </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="37">
+      <c r="F99" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G99" s="28">
         <v>713805599</v>
       </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
+      <c r="H99" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B100" s="27">
         <v>10</v>
       </c>
@@ -6566,12 +7059,20 @@
       <c r="E100" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
+      <c r="F100" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B101" s="27">
         <v>11</v>
       </c>
@@ -6584,14 +7085,20 @@
       <c r="E101" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="F101" s="28"/>
-      <c r="G101" s="37">
+      <c r="F101" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G101" s="28">
         <v>766537623</v>
       </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
+      <c r="H101" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B102" s="27">
         <v>12</v>
       </c>
@@ -6604,14 +7111,20 @@
       <c r="E102" s="28" t="s">
         <v>1062</v>
       </c>
-      <c r="F102" s="28"/>
-      <c r="G102" s="37">
+      <c r="F102" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G102" s="28">
         <v>729698740</v>
       </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="H102" s="28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="33" t="s">
+        <v>1050</v>
+      </c>
       <c r="B103" s="27">
         <v>13</v>
       </c>
@@ -6624,21 +7137,18 @@
       <c r="E103" s="28" t="s">
         <v>1064</v>
       </c>
-      <c r="F103" s="28"/>
-      <c r="G103" s="37">
+      <c r="F103" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G103" s="28">
         <v>742118889</v>
       </c>
-      <c r="H103" s="28"/>
+      <c r="H103" s="28" t="s">
+        <v>636</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A23:A36"/>
-    <mergeCell ref="A37:A58"/>
-    <mergeCell ref="A59:A77"/>
-    <mergeCell ref="A78:A90"/>
-    <mergeCell ref="A91:A103"/>
-  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6650,21 +7160,21 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="51.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="51.7265625" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6690,7 +7200,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6714,11 +7224,13 @@
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>675</v>
@@ -6734,11 +7246,13 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>677</v>
@@ -6754,11 +7268,13 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>679</v>
@@ -6774,11 +7290,13 @@
         <v>680</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>681</v>
@@ -6796,11 +7314,13 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>683</v>
@@ -6818,11 +7338,13 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>685</v>
@@ -6840,11 +7362,13 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>687</v>
@@ -6862,7 +7386,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -6886,7 +7410,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -6906,7 +7430,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -6926,7 +7450,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -6946,7 +7470,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -6966,7 +7490,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -6986,7 +7510,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -7006,7 +7530,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -7026,7 +7550,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -7052,7 +7576,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -7074,7 +7598,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -7096,7 +7620,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -7118,7 +7642,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -7140,7 +7664,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -7162,7 +7686,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>7</v>
       </c>
@@ -7182,7 +7706,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>8</v>
       </c>
@@ -7204,7 +7728,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -7230,7 +7754,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -7252,7 +7776,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -7274,7 +7798,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -7296,7 +7820,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -7318,7 +7842,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -7340,7 +7864,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>7</v>
       </c>
@@ -7362,7 +7886,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>8</v>
       </c>
@@ -7382,7 +7906,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -7404,7 +7928,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -7424,7 +7948,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>3</v>
       </c>
@@ -7442,7 +7966,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>4</v>
       </c>
@@ -7462,7 +7986,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>5</v>
       </c>
@@ -7482,7 +8006,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>6</v>
       </c>
@@ -7502,7 +8026,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>7</v>
       </c>
@@ -7522,7 +8046,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -7548,7 +8072,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -7570,7 +8094,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>3</v>
       </c>
@@ -7590,7 +8114,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>4</v>
       </c>
@@ -7608,7 +8132,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>5</v>
       </c>
@@ -7628,7 +8152,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>6</v>
       </c>
@@ -7646,7 +8170,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>7</v>
       </c>
@@ -7666,7 +8190,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>8</v>
       </c>
@@ -7688,7 +8212,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -7712,7 +8236,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2</v>
       </c>
@@ -7732,7 +8256,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>3</v>
       </c>
@@ -7750,7 +8274,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>4</v>
       </c>
@@ -7768,7 +8292,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>5</v>
       </c>
@@ -7788,7 +8312,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>6</v>
       </c>
@@ -7808,7 +8332,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -7826,7 +8350,7 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>8</v>
       </c>
@@ -7846,7 +8370,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -7872,7 +8396,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2</v>
       </c>
@@ -7894,7 +8418,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>3</v>
       </c>
@@ -7916,7 +8440,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>4</v>
       </c>
@@ -7938,7 +8462,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>5</v>
       </c>
@@ -7960,7 +8484,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>6</v>
       </c>
@@ -7982,7 +8506,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>7</v>
       </c>
@@ -8004,7 +8528,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>8</v>
       </c>
@@ -8026,7 +8550,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -8052,7 +8576,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2</v>
       </c>
@@ -8074,7 +8598,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>3</v>
       </c>
@@ -8096,7 +8620,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>4</v>
       </c>
@@ -8118,7 +8642,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>5</v>
       </c>
@@ -8140,7 +8664,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>6</v>
       </c>
@@ -8162,7 +8686,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>7</v>
       </c>
@@ -8184,7 +8708,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>8</v>
       </c>
@@ -8206,7 +8730,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -8232,7 +8756,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>2</v>
       </c>
@@ -8254,7 +8778,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>3</v>
       </c>
@@ -8276,7 +8800,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>4</v>
       </c>
@@ -8298,7 +8822,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>5</v>
       </c>
@@ -8320,7 +8844,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>6</v>
       </c>
@@ -8342,7 +8866,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>7</v>
       </c>
@@ -8364,7 +8888,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>8</v>
       </c>
@@ -8386,7 +8910,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>1</v>
       </c>
@@ -8412,7 +8936,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>2</v>
       </c>
@@ -8434,7 +8958,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>3</v>
       </c>
@@ -8456,7 +8980,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>4</v>
       </c>
@@ -8478,7 +9002,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>5</v>
       </c>
@@ -8500,7 +9024,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>6</v>
       </c>
@@ -8522,7 +9046,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>7</v>
       </c>
@@ -8544,7 +9068,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>8</v>
       </c>
@@ -8566,7 +9090,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -8592,7 +9116,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>2</v>
       </c>
@@ -8614,7 +9138,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>3</v>
       </c>
@@ -8636,7 +9160,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>4</v>
       </c>
@@ -8658,7 +9182,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>5</v>
       </c>
@@ -8680,7 +9204,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>6</v>
       </c>
@@ -8700,7 +9224,7 @@
       </c>
       <c r="H94" s="23"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>7</v>
       </c>
@@ -8722,7 +9246,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>8</v>
       </c>
@@ -8748,7 +9272,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>1</v>
       </c>
@@ -8770,7 +9294,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>2</v>
       </c>
@@ -8792,7 +9316,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>3</v>
       </c>
@@ -8814,7 +9338,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>4</v>
       </c>
@@ -8836,7 +9360,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>5</v>
       </c>
@@ -8858,7 +9382,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>6</v>
       </c>
@@ -8878,7 +9402,7 @@
       </c>
       <c r="H102" s="23"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>7</v>
       </c>
@@ -8898,7 +9422,7 @@
       </c>
       <c r="H103" s="23"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -8922,7 +9446,7 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2</v>
       </c>
@@ -8942,7 +9466,7 @@
       </c>
       <c r="H105" s="23"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>3</v>
       </c>
@@ -8964,7 +9488,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>4</v>
       </c>
@@ -8986,7 +9510,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>5</v>
       </c>
@@ -9008,7 +9532,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>6</v>
       </c>
@@ -9030,7 +9554,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>7</v>
       </c>
@@ -9052,7 +9576,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>8</v>
       </c>
@@ -9074,7 +9598,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>1</v>
       </c>
@@ -9098,7 +9622,7 @@
       </c>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>2</v>
       </c>
@@ -9118,7 +9642,7 @@
       </c>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>3</v>
       </c>
@@ -9138,7 +9662,7 @@
       </c>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>4</v>
       </c>
@@ -9158,7 +9682,7 @@
       </c>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>5</v>
       </c>
@@ -9178,7 +9702,7 @@
       </c>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>6</v>
       </c>
@@ -9198,7 +9722,7 @@
       </c>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>7</v>
       </c>
@@ -9218,7 +9742,7 @@
       </c>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>8</v>
       </c>
@@ -9255,20 +9779,20 @@
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="3.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.54296875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9294,7 +9818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -9320,7 +9844,7 @@
         <v>755740244</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -9342,7 +9866,7 @@
         <v>716912908</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -9364,7 +9888,7 @@
         <v>713746317</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -9386,7 +9910,7 @@
         <v>775654565</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -9406,7 +9930,7 @@
         <v>765425851</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -9428,7 +9952,7 @@
         <v>767407669</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -9448,7 +9972,7 @@
         <v>771890625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -9470,7 +9994,7 @@
         <v>714842078</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -9496,7 +10020,7 @@
         <v>703171935</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -9518,7 +10042,7 @@
         <v>711059027</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>3</v>
       </c>
@@ -9540,7 +10064,7 @@
         <v>723429777</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>4</v>
       </c>
@@ -9562,7 +10086,7 @@
         <v>712040707</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>5</v>
       </c>
@@ -9584,7 +10108,7 @@
         <v>716082182</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>6</v>
       </c>
@@ -9604,7 +10128,7 @@
         <v>773044046</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>7</v>
       </c>
@@ -9624,7 +10148,7 @@
         <v>718983518</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="25">
         <v>8</v>
       </c>
@@ -9644,7 +10168,7 @@
         <v>712636289</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="25">
         <v>1</v>
       </c>
@@ -9670,7 +10194,7 @@
         <v>740334837</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="25">
         <v>2</v>
       </c>
@@ -9692,7 +10216,7 @@
         <v>703139380</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="25">
         <v>3</v>
       </c>
@@ -9714,7 +10238,7 @@
         <v>759375790</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="25">
         <v>4</v>
       </c>
@@ -9736,7 +10260,7 @@
         <v>71393124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>5</v>
       </c>
@@ -9758,7 +10282,7 @@
         <v>724739989</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>6</v>
       </c>
@@ -9780,7 +10304,7 @@
         <v>717599518</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="25">
         <v>7</v>
       </c>
@@ -9802,7 +10326,7 @@
         <v>712792760</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="25">
         <v>8</v>
       </c>
@@ -9824,7 +10348,7 @@
         <v>712055509</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="25">
         <v>1</v>
       </c>
@@ -9850,7 +10374,7 @@
         <v>716454335</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="25">
         <v>2</v>
       </c>
@@ -9870,7 +10394,7 @@
         <v>783289011</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="25">
         <v>3</v>
       </c>
@@ -9892,7 +10416,7 @@
         <v>763157904</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="25">
         <v>4</v>
       </c>
@@ -9914,7 +10438,7 @@
         <v>773481890</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="25">
         <v>5</v>
       </c>
@@ -9936,7 +10460,7 @@
         <v>767586876</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="25">
         <v>6</v>
       </c>
@@ -9958,7 +10482,7 @@
         <v>758613894</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="25">
         <v>7</v>
       </c>
@@ -9980,7 +10504,7 @@
         <v>702601190</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="25">
         <v>1</v>
       </c>
@@ -10004,7 +10528,7 @@
         <v>702741360</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="25">
         <v>2</v>
       </c>
@@ -10026,7 +10550,7 @@
         <v>712080677</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="25">
         <v>3</v>
       </c>
@@ -10048,7 +10572,7 @@
         <v>719812385</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="25">
         <v>4</v>
       </c>
@@ -10070,7 +10594,7 @@
         <v>717203211</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="25">
         <v>5</v>
       </c>
@@ -10092,7 +10616,7 @@
         <v>764044615</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="25">
         <v>6</v>
       </c>
@@ -10114,7 +10638,7 @@
         <v>710965563</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="25">
         <v>7</v>
       </c>
@@ -10136,7 +10660,7 @@
         <v>776660021</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="25">
         <v>8</v>
       </c>
@@ -10158,7 +10682,7 @@
         <v>741257401</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="25">
         <v>1</v>
       </c>
@@ -10182,7 +10706,7 @@
         <v>757423698</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="25">
         <v>2</v>
       </c>
@@ -10204,7 +10728,7 @@
         <v>779616521</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="25">
         <v>3</v>
       </c>
@@ -10226,7 +10750,7 @@
         <v>718402014</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="25">
         <v>4</v>
       </c>
@@ -10248,7 +10772,7 @@
         <v>712397823</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="25">
         <v>5</v>
       </c>
@@ -10268,7 +10792,7 @@
         <v>762279282</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="25">
         <v>6</v>
       </c>
@@ -10290,7 +10814,7 @@
         <v>718446403</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="25">
         <v>7</v>
       </c>
@@ -10308,7 +10832,7 @@
       </c>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="25">
         <v>8</v>
       </c>
@@ -10328,7 +10852,7 @@
         <v>74174156</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="25">
         <v>1</v>
       </c>
@@ -10354,7 +10878,7 @@
         <v>718074047</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="25">
         <v>2</v>
       </c>
@@ -10376,7 +10900,7 @@
         <v>777468876</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="25">
         <v>3</v>
       </c>
@@ -10398,7 +10922,7 @@
         <v>711859738</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="25">
         <v>4</v>
       </c>
@@ -10418,7 +10942,7 @@
         <v>758929201</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="25">
         <v>5</v>
       </c>
@@ -10440,7 +10964,7 @@
         <v>772590847</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="25">
         <v>6</v>
       </c>
@@ -10462,7 +10986,7 @@
         <v>757081321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="25">
         <v>7</v>
       </c>
@@ -10484,7 +11008,7 @@
         <v>763976705</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="25">
         <v>8</v>
       </c>
@@ -10502,7 +11026,7 @@
         <v>756328250</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="25">
         <v>1</v>
       </c>
@@ -10528,7 +11052,7 @@
         <v>76550340</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="25">
         <v>2</v>
       </c>
@@ -10548,7 +11072,7 @@
         <v>775774534</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="25">
         <v>3</v>
       </c>
@@ -10570,7 +11094,7 @@
         <v>764037987</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="25">
         <v>4</v>
       </c>
@@ -10592,7 +11116,7 @@
         <v>775275004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="25">
         <v>5</v>
       </c>
@@ -10614,7 +11138,7 @@
         <v>718501594</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="25">
         <v>6</v>
       </c>
@@ -10636,7 +11160,7 @@
         <v>766820542</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="25">
         <v>7</v>
       </c>
@@ -10658,7 +11182,7 @@
         <v>712636289</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="25">
         <v>1</v>
       </c>
@@ -10684,7 +11208,7 @@
         <v>725803169</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="25">
         <v>2</v>
       </c>
@@ -10706,7 +11230,7 @@
         <v>77877034</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="25">
         <v>3</v>
       </c>
@@ -10728,7 +11252,7 @@
         <v>752859670</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="25">
         <v>4</v>
       </c>
@@ -10750,7 +11274,7 @@
         <v>779684482</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="25">
         <v>5</v>
       </c>
@@ -10772,7 +11296,7 @@
         <v>712631149</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="25">
         <v>6</v>
       </c>
@@ -10794,7 +11318,7 @@
         <v>776471324</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="25">
         <v>7</v>
       </c>
@@ -10816,7 +11340,7 @@
         <v>775106890</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="25">
         <v>1</v>
       </c>
@@ -10842,7 +11366,7 @@
         <v>718074047</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="25">
         <v>2</v>
       </c>
@@ -10864,7 +11388,7 @@
         <v>769257901</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="25">
         <v>3</v>
       </c>
@@ -10886,7 +11410,7 @@
         <v>723202865</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="25">
         <v>4</v>
       </c>
@@ -10908,7 +11432,7 @@
         <v>752957209</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="25">
         <v>5</v>
       </c>
@@ -10930,7 +11454,7 @@
         <v>764693438</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="25">
         <v>6</v>
       </c>
@@ -10952,7 +11476,7 @@
         <v>711859738</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="25">
         <v>7</v>
       </c>
@@ -10974,7 +11498,7 @@
         <v>767407669</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="25">
         <v>1</v>
       </c>
@@ -11000,7 +11524,7 @@
         <v>773181808</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="25">
         <v>2</v>
       </c>
@@ -11022,7 +11546,7 @@
         <v>766895067</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="25">
         <v>3</v>
       </c>
@@ -11044,7 +11568,7 @@
         <v>764592497</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="25">
         <v>4</v>
       </c>
@@ -11064,7 +11588,7 @@
         <v>765605835</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="25">
         <v>5</v>
       </c>
@@ -11086,7 +11610,7 @@
         <v>742580091</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="25">
         <v>1</v>
       </c>
@@ -11112,7 +11636,7 @@
         <v>776944897</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="25">
         <v>2</v>
       </c>
@@ -11132,7 +11656,7 @@
         <v>718372625</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="25">
         <v>3</v>
       </c>
@@ -11154,7 +11678,7 @@
         <v>714677265</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="25">
         <v>4</v>
       </c>
@@ -11176,7 +11700,7 @@
         <v>747407783</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="25">
         <v>5</v>
       </c>
@@ -11196,7 +11720,7 @@
         <v>715183139</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="25">
         <v>6</v>
       </c>
@@ -11218,7 +11742,7 @@
         <v>778005916</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="25">
         <v>7</v>
       </c>
@@ -11240,7 +11764,7 @@
         <v>713401560</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="25">
         <v>1</v>
       </c>
@@ -11266,7 +11790,7 @@
         <v>712949506</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="25">
         <v>2</v>
       </c>
@@ -11288,7 +11812,7 @@
         <v>710919023</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="25">
         <v>3</v>
       </c>
@@ -11310,7 +11834,7 @@
         <v>718850745</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="25">
         <v>4</v>
       </c>
@@ -11332,7 +11856,7 @@
         <v>718375306</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="25">
         <v>5</v>
       </c>
@@ -11354,7 +11878,7 @@
         <v>710918948</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="25">
         <v>6</v>
       </c>
@@ -11376,7 +11900,7 @@
         <v>752078046</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="25">
         <v>1</v>
       </c>
@@ -11402,7 +11926,7 @@
         <v>719204180</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="25">
         <v>2</v>
       </c>
@@ -11424,7 +11948,7 @@
         <v>725338088</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25">
         <v>3</v>
       </c>
@@ -11446,7 +11970,7 @@
         <v>767773409</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="25">
         <v>4</v>
       </c>
@@ -11468,7 +11992,7 @@
         <v>779432746</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="25">
         <v>5</v>
       </c>
@@ -11488,7 +12012,7 @@
       </c>
       <c r="H100" s="26"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="25">
         <v>6</v>
       </c>
@@ -11510,7 +12034,7 @@
         <v>775892299</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="25">
         <v>7</v>
       </c>
@@ -11532,7 +12056,7 @@
         <v>714727425</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="25">
         <v>8</v>
       </c>
@@ -11570,20 +12094,20 @@
       <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="5" max="5" width="8.54296875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="41.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11609,7 +12133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -11635,7 +12159,7 @@
         <v>701706594</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -11657,7 +12181,7 @@
         <v>775418502</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -11679,7 +12203,7 @@
         <v>716722724</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -11701,7 +12225,7 @@
         <v>774242635</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -11723,7 +12247,7 @@
         <v>778182984</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -11745,7 +12269,7 @@
         <v>702375180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -11767,7 +12291,7 @@
         <v>813813458</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -11793,7 +12317,7 @@
         <v>779167112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -11815,7 +12339,7 @@
         <v>716665232</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -11835,7 +12359,7 @@
         <v>778054943</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -11855,7 +12379,7 @@
         <v>772219730</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -11875,7 +12399,7 @@
         <v>719584582</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>6</v>
       </c>
@@ -11895,7 +12419,7 @@
         <v>711588724</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -11913,7 +12437,7 @@
       </c>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>8</v>
       </c>
@@ -11933,7 +12457,7 @@
         <v>76542786</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -11959,7 +12483,7 @@
         <v>712939695</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -11981,7 +12505,7 @@
         <v>717652805</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -12003,7 +12527,7 @@
         <v>718061138</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>4</v>
       </c>
@@ -12025,7 +12549,7 @@
         <v>779714909</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>5</v>
       </c>
@@ -12047,7 +12571,7 @@
         <v>743087812</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>6</v>
       </c>
@@ -12069,7 +12593,7 @@
         <v>716804963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>7</v>
       </c>
@@ -12091,7 +12615,7 @@
         <v>772784985</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>8</v>
       </c>
@@ -12113,7 +12637,7 @@
         <v>712825508</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -12139,7 +12663,7 @@
         <v>714252611</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2</v>
       </c>
@@ -12161,7 +12685,7 @@
         <v>755263362</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>3</v>
       </c>
@@ -12183,7 +12707,7 @@
         <v>742174087</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>4</v>
       </c>
@@ -12205,7 +12729,7 @@
         <v>759105639</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -12225,7 +12749,7 @@
       </c>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>6</v>
       </c>
@@ -12245,7 +12769,7 @@
       </c>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>7</v>
       </c>
@@ -12265,7 +12789,7 @@
       </c>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>8</v>
       </c>
@@ -12285,7 +12809,7 @@
       </c>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -12311,7 +12835,7 @@
         <v>774635829</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2</v>
       </c>
@@ -12333,7 +12857,7 @@
         <v>714635829</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>3</v>
       </c>
@@ -12355,7 +12879,7 @@
         <v>718298853</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>4</v>
       </c>
@@ -12377,7 +12901,7 @@
         <v>779623438</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -12399,7 +12923,7 @@
         <v>778334872</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>6</v>
       </c>
@@ -12421,7 +12945,7 @@
         <v>718834201</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>7</v>
       </c>
@@ -12443,7 +12967,7 @@
         <v>716722909</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>1</v>
       </c>
@@ -12467,7 +12991,7 @@
         <v>813991927</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>2</v>
       </c>
@@ -12487,7 +13011,7 @@
         <v>777171038</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>3</v>
       </c>
@@ -12507,7 +13031,7 @@
         <v>740061031</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>4</v>
       </c>
@@ -12529,7 +13053,7 @@
         <v>773708425</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -12549,7 +13073,7 @@
         <v>813816937</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>6</v>
       </c>
@@ -12571,7 +13095,7 @@
         <v>752206418</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>7</v>
       </c>
@@ -12593,7 +13117,7 @@
         <v>713358453</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>8</v>
       </c>
@@ -12615,7 +13139,7 @@
         <v>712315935</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -12641,7 +13165,7 @@
         <v>71293965</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>2</v>
       </c>
@@ -12663,7 +13187,7 @@
         <v>741278590</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>3</v>
       </c>
@@ -12685,7 +13209,7 @@
         <v>760591852</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>4</v>
       </c>
@@ -12705,7 +13229,7 @@
         <v>761308833</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>5</v>
       </c>
@@ -12725,7 +13249,7 @@
         <v>710345287</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>6</v>
       </c>
@@ -12745,7 +13269,7 @@
         <v>710395913</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>7</v>
       </c>
@@ -12765,7 +13289,7 @@
         <v>812406902</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>8</v>
       </c>
@@ -12787,7 +13311,7 @@
         <v>713449007</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>1</v>
       </c>
@@ -12813,7 +13337,7 @@
         <v>711994596</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>2</v>
       </c>
@@ -12835,7 +13359,7 @@
         <v>718525746</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>3</v>
       </c>
@@ -12857,7 +13381,7 @@
         <v>714635829</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>4</v>
       </c>
@@ -12879,7 +13403,7 @@
         <v>776607341</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>5</v>
       </c>
@@ -12899,7 +13423,7 @@
         <v>714658333</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>6</v>
       </c>
@@ -12919,7 +13443,7 @@
         <v>775274415</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>7</v>
       </c>
@@ -12939,7 +13463,7 @@
         <v>775934086</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -12965,7 +13489,7 @@
         <v>702447126</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>2</v>
       </c>
@@ -12987,7 +13511,7 @@
         <v>778180461</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>3</v>
       </c>
@@ -13009,7 +13533,7 @@
         <v>764680711</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>4</v>
       </c>
@@ -13031,7 +13555,7 @@
         <v>779466806</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>5</v>
       </c>
@@ -13053,7 +13577,7 @@
         <v>779743432</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>6</v>
       </c>
@@ -13075,7 +13599,7 @@
         <v>711994596</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>7</v>
       </c>
@@ -13097,7 +13621,7 @@
         <v>778236353</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>8</v>
       </c>
@@ -13117,7 +13641,7 @@
       </c>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>1</v>
       </c>
@@ -13143,7 +13667,7 @@
         <v>759904218</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>2</v>
       </c>
@@ -13165,7 +13689,7 @@
         <v>759105632</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>3</v>
       </c>
@@ -13185,7 +13709,7 @@
         <v>759105632</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>4</v>
       </c>
@@ -13207,7 +13731,7 @@
         <v>712967891</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>5</v>
       </c>
@@ -13229,7 +13753,7 @@
         <v>712099989</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>6</v>
       </c>
@@ -13251,7 +13775,7 @@
         <v>770372591</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>7</v>
       </c>
@@ -13273,7 +13797,7 @@
         <v>773074116</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>1</v>
       </c>
@@ -13299,7 +13823,7 @@
         <v>710395721</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>2</v>
       </c>
@@ -13321,7 +13845,7 @@
         <v>769145882</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>3</v>
       </c>
@@ -13343,7 +13867,7 @@
         <v>719857920</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>4</v>
       </c>
@@ -13365,7 +13889,7 @@
         <v>782636745</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>5</v>
       </c>
@@ -13387,7 +13911,7 @@
         <v>813822513</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>6</v>
       </c>
@@ -13409,7 +13933,7 @@
         <v>717679403</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>7</v>
       </c>
@@ -13431,7 +13955,7 @@
         <v>750179120</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>8</v>
       </c>
@@ -13453,7 +13977,7 @@
         <v>772448487</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -13479,7 +14003,7 @@
         <v>774594763</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>2</v>
       </c>
@@ -13501,7 +14025,7 @@
         <v>712853062</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>3</v>
       </c>
@@ -13523,7 +14047,7 @@
         <v>702846815</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>4</v>
       </c>
@@ -13545,7 +14069,7 @@
         <v>713600495</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>5</v>
       </c>
@@ -13567,7 +14091,7 @@
         <v>769384048</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>6</v>
       </c>
@@ -13587,7 +14111,7 @@
         <v>704997095</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>7</v>
       </c>
@@ -13609,7 +14133,7 @@
         <v>764898178</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>8</v>
       </c>
@@ -13631,7 +14155,7 @@
         <v>704448491</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
         <v>1</v>
       </c>
@@ -13657,7 +14181,7 @@
         <v>775845621</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
         <v>2</v>
       </c>
@@ -13679,7 +14203,7 @@
         <v>773841223</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>3</v>
       </c>
@@ -13701,7 +14225,7 @@
         <v>741034862</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>4</v>
       </c>
@@ -13723,7 +14247,7 @@
         <v>713786570</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
         <v>5</v>
       </c>
@@ -13745,7 +14269,7 @@
         <v>776779033</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>6</v>
       </c>
@@ -13767,7 +14291,7 @@
         <v>716722909</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
         <v>1</v>
       </c>
@@ -13793,7 +14317,7 @@
         <v>7144881</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
         <v>2</v>
       </c>
@@ -13815,7 +14339,7 @@
         <v>779610210</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>3</v>
       </c>
@@ -13837,7 +14361,7 @@
         <v>743141781</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
         <v>4</v>
       </c>
@@ -13859,7 +14383,7 @@
         <v>712925684</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>5</v>
       </c>
@@ -13881,7 +14405,7 @@
         <v>715993675</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
         <v>6</v>
       </c>
@@ -13903,7 +14427,7 @@
         <v>772887005</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
         <v>7</v>
       </c>
@@ -13925,7 +14449,7 @@
         <v>712230050</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
         <v>8</v>
       </c>
@@ -13947,7 +14471,7 @@
         <v>770863839</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
         <v>1</v>
       </c>
@@ -13973,7 +14497,7 @@
         <v>714488811</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
         <v>2</v>
       </c>
@@ -13995,7 +14519,7 @@
         <v>779610210</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
         <v>3</v>
       </c>
@@ -14017,7 +14541,7 @@
         <v>712925684</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
         <v>4</v>
       </c>
@@ -14039,7 +14563,7 @@
         <v>715993675</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>5</v>
       </c>
@@ -14061,7 +14585,7 @@
         <v>772887005</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
         <v>6</v>
       </c>
@@ -14083,7 +14607,7 @@
         <v>717230050</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>7</v>
       </c>
@@ -14105,7 +14629,7 @@
         <v>770863839</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>1</v>
       </c>
@@ -14129,7 +14653,7 @@
         <v>714886829</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>2</v>
       </c>
@@ -14147,7 +14671,7 @@
       </c>
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
         <v>3</v>
       </c>
@@ -14165,7 +14689,7 @@
       </c>
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
         <v>4</v>
       </c>
@@ -14183,7 +14707,7 @@
       </c>
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
         <v>5</v>
       </c>
@@ -14203,7 +14727,7 @@
         <v>763164773</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
         <v>6</v>
       </c>
@@ -14225,7 +14749,7 @@
         <v>719363359</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>7</v>
       </c>
@@ -14247,7 +14771,7 @@
         <v>770863839</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
         <v>8</v>
       </c>
@@ -14269,7 +14793,7 @@
         <v>717279810</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="9">
         <v>1</v>
       </c>
@@ -14293,7 +14817,7 @@
       </c>
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
         <v>2</v>
       </c>
@@ -14315,7 +14839,7 @@
         <v>710412661</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
         <v>3</v>
       </c>
@@ -14333,7 +14857,7 @@
       </c>
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="9">
         <v>4</v>
       </c>
@@ -14353,7 +14877,7 @@
         <v>715821174</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
         <v>5</v>
       </c>
@@ -14373,7 +14897,7 @@
         <v>712893531</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>6</v>
       </c>
@@ -14393,7 +14917,7 @@
       </c>
       <c r="H128" s="17"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>7</v>
       </c>
@@ -14429,20 +14953,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14.26953125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -14468,7 +14992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14494,7 +15018,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -14516,7 +15040,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -14538,7 +15062,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -14558,7 +15082,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -14580,7 +15104,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -14602,7 +15126,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -14624,7 +15148,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <v>1</v>
       </c>
@@ -14650,7 +15174,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -14672,7 +15196,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>3</v>
       </c>
@@ -14694,7 +15218,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>4</v>
       </c>
@@ -14716,7 +15240,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>5</v>
       </c>
@@ -14738,7 +15262,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>6</v>
       </c>
@@ -14760,7 +15284,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>7</v>
       </c>
@@ -14782,7 +15306,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>8</v>
       </c>
@@ -14804,7 +15328,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>1</v>
       </c>
@@ -14830,7 +15354,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>2</v>
       </c>
@@ -14852,7 +15376,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>3</v>
       </c>
@@ -14874,7 +15398,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>4</v>
       </c>
@@ -14896,7 +15420,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>5</v>
       </c>
@@ -14918,7 +15442,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>6</v>
       </c>
@@ -14940,7 +15464,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>1</v>
       </c>
@@ -14964,7 +15488,7 @@
       </c>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="27">
         <v>2</v>
       </c>
@@ -14984,7 +15508,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="27">
         <v>3</v>
       </c>
@@ -15004,7 +15528,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -15022,7 +15546,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="27">
         <v>5</v>
       </c>
@@ -15040,7 +15564,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="27">
         <v>1</v>
       </c>
@@ -15066,7 +15590,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="27">
         <v>2</v>
       </c>
@@ -15088,7 +15612,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="27">
         <v>3</v>
       </c>
@@ -15106,7 +15630,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -15128,7 +15652,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="27">
         <v>5</v>
       </c>
@@ -15150,7 +15674,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="27">
         <v>6</v>
       </c>
@@ -15172,7 +15696,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="27">
         <v>7</v>
       </c>
@@ -15194,7 +15718,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="27">
         <v>8</v>
       </c>
@@ -15216,7 +15740,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -15242,7 +15766,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="27">
         <v>2</v>
       </c>
@@ -15264,7 +15788,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="27">
         <v>3</v>
       </c>
@@ -15286,7 +15810,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>4</v>
       </c>
@@ -15308,7 +15832,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="27">
         <v>5</v>
       </c>
@@ -15330,7 +15854,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="27">
         <v>6</v>
       </c>
@@ -15352,7 +15876,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -15374,7 +15898,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="27">
         <v>2</v>
       </c>
@@ -15394,7 +15918,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="27">
         <v>3</v>
       </c>
@@ -15414,7 +15938,7 @@
       </c>
       <c r="H44" s="28"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="27">
         <v>4</v>
       </c>
@@ -15432,7 +15956,7 @@
       </c>
       <c r="H45" s="28"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -15456,7 +15980,7 @@
       </c>
       <c r="H46" s="28"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="27">
         <v>2</v>
       </c>
@@ -15474,7 +15998,7 @@
       </c>
       <c r="H47" s="28"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="27">
         <v>3</v>
       </c>
@@ -15492,7 +16016,7 @@
       </c>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="27">
         <v>4</v>
       </c>
@@ -15510,7 +16034,7 @@
       </c>
       <c r="H49" s="28"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="27">
         <v>5</v>
       </c>
@@ -15530,7 +16054,7 @@
       </c>
       <c r="H50" s="28"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="27">
         <v>6</v>
       </c>
@@ -15550,7 +16074,7 @@
       </c>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="27">
         <v>7</v>
       </c>
@@ -15570,7 +16094,7 @@
       </c>
       <c r="H52" s="28"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -15596,7 +16120,7 @@
         <v>742141316</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="27">
         <v>2</v>
       </c>
@@ -15618,7 +16142,7 @@
         <v>77179493</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="27">
         <v>3</v>
       </c>
@@ -15640,7 +16164,7 @@
         <v>713288181</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="27">
         <v>4</v>
       </c>
@@ -15662,7 +16186,7 @@
         <v>773297930</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="27">
         <v>5</v>
       </c>
@@ -15682,7 +16206,7 @@
       </c>
       <c r="H57" s="28"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="27">
         <v>6</v>
       </c>
@@ -15702,7 +16226,7 @@
       </c>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="27">
         <v>7</v>
       </c>
@@ -15722,7 +16246,7 @@
       </c>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="27">
         <v>8</v>
       </c>
@@ -15742,7 +16266,7 @@
       </c>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="27">
         <v>1</v>
       </c>
@@ -15766,7 +16290,7 @@
       </c>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27">
         <v>2</v>
       </c>
@@ -15786,7 +16310,7 @@
       </c>
       <c r="H62" s="28"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="27">
         <v>3</v>
       </c>
@@ -15806,7 +16330,7 @@
       </c>
       <c r="H63" s="28"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="27">
         <v>4</v>
       </c>
@@ -15826,7 +16350,7 @@
       </c>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="27">
         <v>5</v>
       </c>
@@ -15846,7 +16370,7 @@
       </c>
       <c r="H65" s="28"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="27">
         <v>6</v>
       </c>
@@ -15866,7 +16390,7 @@
       </c>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="27">
         <v>7</v>
       </c>
@@ -15882,7 +16406,7 @@
       </c>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="27">
         <v>8</v>
       </c>
@@ -15902,7 +16426,7 @@
       </c>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="27">
         <v>1</v>
       </c>
@@ -15928,7 +16452,7 @@
         <v>703135617</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="27">
         <v>2</v>
       </c>
@@ -15950,7 +16474,7 @@
         <v>778368361</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="27">
         <v>3</v>
       </c>
@@ -15970,7 +16494,7 @@
       </c>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="27">
         <v>4</v>
       </c>
@@ -15992,7 +16516,7 @@
         <v>761142737</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="27">
         <v>5</v>
       </c>
@@ -16014,7 +16538,7 @@
         <v>775747559</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="27">
         <v>1</v>
       </c>
@@ -16038,7 +16562,7 @@
       </c>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="27">
         <v>2</v>
       </c>
@@ -16058,7 +16582,7 @@
       </c>
       <c r="H75" s="28"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="27">
         <v>3</v>
       </c>
@@ -16076,7 +16600,7 @@
       </c>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="27">
         <v>4</v>
       </c>
@@ -16096,7 +16620,7 @@
       </c>
       <c r="H77" s="28"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="27">
         <v>5</v>
       </c>
@@ -16114,7 +16638,7 @@
       </c>
       <c r="H78" s="28"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="27">
         <v>6</v>
       </c>
@@ -16136,7 +16660,7 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="27">
         <v>7</v>
       </c>
@@ -16160,7 +16684,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="27">
         <v>8</v>
       </c>
@@ -16182,7 +16706,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="27">
         <v>1</v>
       </c>
@@ -16210,7 +16734,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="27">
         <v>2</v>
       </c>
@@ -16234,7 +16758,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="27">
         <v>3</v>
       </c>
@@ -16258,7 +16782,7 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="27">
         <v>4</v>
       </c>
@@ -16282,7 +16806,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="27">
         <v>5</v>
       </c>
@@ -16306,7 +16830,7 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="27">
         <v>6</v>
       </c>
@@ -16328,7 +16852,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="27">
         <v>7</v>
       </c>
@@ -16352,7 +16876,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="27">
         <v>1</v>
       </c>
@@ -16378,7 +16902,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -16400,7 +16924,7 @@
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="27">
         <v>3</v>
       </c>
@@ -16422,7 +16946,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="27">
         <v>4</v>
       </c>
@@ -16444,7 +16968,7 @@
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="27">
         <v>5</v>
       </c>
@@ -16466,7 +16990,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="27">
         <v>6</v>
       </c>
@@ -16488,7 +17012,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="27">
         <v>7</v>
       </c>
@@ -16510,7 +17034,7 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="27">
         <v>8</v>
       </c>
@@ -16532,7 +17056,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="27">
         <v>1</v>
       </c>
@@ -16560,7 +17084,7 @@
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="27">
         <v>2</v>
       </c>
@@ -16584,7 +17108,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="27">
         <v>3</v>
       </c>
@@ -16608,7 +17132,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="27">
         <v>4</v>
       </c>
@@ -16632,7 +17156,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E101" s="11"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -16640,73 +17164,73 @@
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E113" s="11"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
@@ -16714,25 +17238,25 @@
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
     </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
@@ -16754,18 +17278,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="44.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16791,7 +17315,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -16817,7 +17341,7 @@
         <v>716939010</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -16839,7 +17363,7 @@
         <v>775153323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -16861,7 +17385,7 @@
         <v>779898087</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -16883,7 +17407,7 @@
         <v>776620105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -16905,7 +17429,7 @@
         <v>723167174</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -16925,7 +17449,7 @@
         <v>771257539</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -16945,7 +17469,7 @@
         <v>776902659</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -16967,7 +17491,7 @@
         <v>774242635</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -16993,7 +17517,7 @@
         <v>759104827</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -17015,7 +17539,7 @@
         <v>776681456</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -17037,7 +17561,7 @@
         <v>760983586</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -17059,7 +17583,7 @@
         <v>786997412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -17081,7 +17605,7 @@
         <v>712665260</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -17103,7 +17627,7 @@
         <v>710127850</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -17125,7 +17649,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -17151,7 +17675,7 @@
         <v>704996742</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -17173,7 +17697,7 @@
         <v>741107752</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -17195,7 +17719,7 @@
         <v>775972043</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -17215,7 +17739,7 @@
         <v>704349011</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -17237,7 +17761,7 @@
         <v>716672697</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -17259,7 +17783,7 @@
         <v>786602149</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -17281,7 +17805,7 @@
         <v>762018780</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>8</v>
       </c>
@@ -17303,7 +17827,7 @@
         <v>788074277</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -17329,7 +17853,7 @@
         <v>701092116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -17351,7 +17875,7 @@
         <v>758837002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -17373,7 +17897,7 @@
         <v>776154875</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -17395,7 +17919,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>5</v>
       </c>
@@ -17417,7 +17941,7 @@
         <v>763559460</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -17439,7 +17963,7 @@
         <v>77399057</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>7</v>
       </c>
@@ -17461,7 +17985,7 @@
         <v>755263362</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>8</v>
       </c>
@@ -17483,7 +18007,7 @@
         <v>773452990</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -17509,7 +18033,7 @@
         <v>760983586</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -17531,7 +18055,7 @@
         <v>759104827</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>3</v>
       </c>
@@ -17553,7 +18077,7 @@
         <v>702352916</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>4</v>
       </c>
@@ -17575,7 +18099,7 @@
         <v>753955511</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>5</v>
       </c>
@@ -17597,7 +18121,7 @@
         <v>789962230</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>6</v>
       </c>
@@ -17619,7 +18143,7 @@
         <v>713054474</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>7</v>
       </c>
@@ -17641,7 +18165,7 @@
         <v>710983958</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>8</v>
       </c>
@@ -17679,20 +18203,20 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="10" customWidth="1"/>
     <col min="2" max="2" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" style="11" customWidth="1"/>
     <col min="6" max="6" width="46" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="16.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>356</v>
       </c>
@@ -17715,7 +18239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -17741,7 +18265,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -17765,7 +18289,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17789,7 +18313,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -17813,7 +18337,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -17837,7 +18361,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -17861,7 +18385,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -17887,7 +18411,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -17911,7 +18435,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -17935,7 +18459,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -17959,7 +18483,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -17981,7 +18505,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -18003,7 +18527,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>7</v>
       </c>
@@ -18027,7 +18551,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -18051,7 +18575,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -18073,7 +18597,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -18093,7 +18617,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -18113,7 +18637,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -18133,7 +18657,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -18153,7 +18677,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -18175,7 +18699,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -18197,7 +18721,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>8</v>
       </c>
@@ -18219,7 +18743,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -18245,7 +18769,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>2</v>
       </c>
@@ -18269,7 +18793,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>3</v>
       </c>
@@ -18293,7 +18817,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>4</v>
       </c>
@@ -18317,7 +18841,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>5</v>
       </c>
@@ -18341,7 +18865,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>6</v>
       </c>
@@ -18365,7 +18889,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>7</v>
       </c>
@@ -18389,7 +18913,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -18413,7 +18937,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -18435,7 +18959,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -18457,7 +18981,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -18479,7 +19003,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -18499,7 +19023,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -18519,7 +19043,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>1</v>
       </c>
@@ -18543,7 +19067,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>2</v>
       </c>
@@ -18567,7 +19091,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>3</v>
       </c>
@@ -18591,7 +19115,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>4</v>
       </c>
@@ -18615,7 +19139,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>5</v>
       </c>
@@ -18637,7 +19161,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>6</v>
       </c>
@@ -18661,7 +19185,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>1</v>
       </c>
@@ -18685,7 +19209,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>2</v>
       </c>
@@ -18707,7 +19231,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>3</v>
       </c>
@@ -18729,7 +19253,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>4</v>
       </c>
@@ -18751,7 +19275,7 @@
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>5</v>
       </c>
@@ -18773,7 +19297,7 @@
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>6</v>
       </c>
@@ -18795,7 +19319,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>7</v>
       </c>
